--- a/WG/Shared/cleaning_plan.xlsx
+++ b/WG/Shared/cleaning_plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
   <si>
     <t>Week</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Anarchy</t>
   </si>
   <si>
     <t>Hallway's floor</t>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -644,22 +647,22 @@
         <v>45376</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -670,19 +673,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
@@ -690,19 +693,19 @@
         <v>45390</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>9</v>
@@ -736,22 +739,22 @@
         <v>45404</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
@@ -759,10 +762,10 @@
         <v>45411</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -771,10 +774,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
@@ -782,13 +785,13 @@
         <v>45418</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
@@ -805,22 +808,22 @@
         <v>45425</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
@@ -828,19 +831,19 @@
         <v>45432</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>9</v>
@@ -851,13 +854,13 @@
         <v>45439</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>9</v>
@@ -866,459 +869,41 @@
         <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
-      <c r="A17" s="3">
-        <v>45446</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="3">
-        <v>45453</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="3">
-        <v>45460</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
-      <c r="A20" s="3">
-        <v>45467</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
-      <c r="A21" s="3">
-        <v>45474</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
-      <c r="A22" s="3">
-        <v>45481</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1">
-      <c r="A23" s="3">
-        <v>45488</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
-      <c r="A24" s="3">
-        <v>45495</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
-      <c r="A25" s="3">
-        <v>45502</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
-      <c r="A26" s="3">
-        <v>45509</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1">
-      <c r="A27" s="3">
-        <v>45516</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1">
-      <c r="A28" s="3">
-        <v>45523</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1">
-      <c r="A29" s="3">
-        <v>45530</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="3">
-        <v>45537</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1">
-      <c r="A31" s="3">
-        <v>45544</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1">
-      <c r="A32" s="3">
-        <v>45551</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1">
-      <c r="A33" s="3">
-        <v>45558</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1">
-      <c r="A34" s="3">
-        <v>45565</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="1" customFormat="1">
-      <c r="A35" s="3">
-        <v>45572</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1"/>
-    <row r="37" spans="1:7" s="1" customFormat="1"/>
-    <row r="38" spans="1:7" s="1" customFormat="1"/>
-    <row r="39" spans="1:7" s="1" customFormat="1"/>
-    <row r="40" spans="1:7" s="1" customFormat="1"/>
-    <row r="41" spans="1:7" s="1" customFormat="1"/>
-    <row r="42" spans="1:7" s="1" customFormat="1"/>
-    <row r="43" spans="1:7" s="1" customFormat="1"/>
-    <row r="44" spans="1:7" s="1" customFormat="1"/>
-    <row r="45" spans="1:7" s="1" customFormat="1"/>
-    <row r="46" spans="1:7" s="1" customFormat="1"/>
-    <row r="47" spans="1:7" s="1" customFormat="1"/>
-    <row r="48" spans="1:7" s="1" customFormat="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
     <row r="49" s="1" customFormat="1"/>
     <row r="50" s="1" customFormat="1"/>
     <row r="51" s="1" customFormat="1"/>
@@ -1371,6 +956,21 @@
     <row r="98" s="1" customFormat="1"/>
     <row r="99" s="1" customFormat="1"/>
     <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1:G1000">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Vacation">
@@ -1408,73 +1008,73 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1482,7 +1082,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
     </row>

--- a/WG/Shared/cleaning_plan.xlsx
+++ b/WG/Shared/cleaning_plan.xlsx
@@ -38,22 +38,22 @@
     <t>Mara</t>
   </si>
   <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Anarchy</t>
+  </si>
+  <si>
     <t>Floor</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>Bathrooms</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Anarchy</t>
   </si>
   <si>
     <t>Hallway's floor</t>
@@ -529,45 +529,45 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="3">
-        <v>45341</v>
+        <v>45348</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="3">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
@@ -575,30 +575,30 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="3">
-        <v>45355</v>
+        <v>45362</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="3">
-        <v>45362</v>
+        <v>45369</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -607,13 +607,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
@@ -621,45 +621,45 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="3">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="3">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>12</v>
@@ -667,114 +667,114 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="3">
-        <v>45383</v>
+        <v>45390</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="3">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="3">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="3">
-        <v>45404</v>
+        <v>45411</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="3">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>10</v>
@@ -782,94 +782,94 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="3">
-        <v>45418</v>
+        <v>45425</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="3">
-        <v>45425</v>
+        <v>45432</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="3">
-        <v>45432</v>
+        <v>45439</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="3">
-        <v>45439</v>
+        <v>45446</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>
@@ -994,16 +994,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1">

--- a/WG/Shared/cleaning_plan.xlsx
+++ b/WG/Shared/cleaning_plan.xlsx
@@ -38,19 +38,19 @@
     <t>Mara</t>
   </si>
   <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Anarchy</t>
+  </si>
+  <si>
     <t>Management</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>Bathrooms</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Anarchy</t>
   </si>
   <si>
     <t>Floor</t>
@@ -529,22 +529,22 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="3">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -552,30 +552,30 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="3">
-        <v>45355</v>
+        <v>45362</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="3">
-        <v>45362</v>
+        <v>45369</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -584,82 +584,82 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="3">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="3">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="3">
-        <v>45383</v>
+        <v>45390</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>12</v>
@@ -667,206 +667,206 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="3">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="3">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="3">
-        <v>45404</v>
+        <v>45411</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="3">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="3">
-        <v>45418</v>
+        <v>45425</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="3">
-        <v>45425</v>
+        <v>45432</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="3">
-        <v>45432</v>
+        <v>45439</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="3">
-        <v>45439</v>
+        <v>45446</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="3">
-        <v>45446</v>
+        <v>45453</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>9</v>
@@ -997,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1">

--- a/WG/Shared/cleaning_plan.xlsx
+++ b/WG/Shared/cleaning_plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
   <si>
     <t>Week</t>
   </si>
@@ -41,19 +41,16 @@
     <t>Vacation</t>
   </si>
   <si>
+    <t>Management</t>
+  </si>
+  <si>
     <t>Bathrooms</t>
   </si>
   <si>
+    <t>Floor</t>
+  </si>
+  <si>
     <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Anarchy</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Floor</t>
   </si>
   <si>
     <t>Hallway's floor</t>
@@ -529,111 +526,111 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="3">
-        <v>45355</v>
+        <v>45383</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="3">
-        <v>45362</v>
+        <v>45390</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="3">
-        <v>45369</v>
+        <v>45397</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="3">
-        <v>45376</v>
+        <v>45404</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="3">
-        <v>45383</v>
+        <v>45411</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
@@ -644,82 +641,82 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="3">
-        <v>45390</v>
+        <v>45418</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="3">
-        <v>45397</v>
+        <v>45425</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="3">
-        <v>45404</v>
+        <v>45432</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="3">
-        <v>45411</v>
+        <v>45439</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -728,41 +725,41 @@
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="3">
-        <v>45418</v>
+        <v>45446</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="3">
-        <v>45425</v>
+        <v>45453</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -771,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>8</v>
@@ -782,94 +779,94 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="3">
-        <v>45432</v>
+        <v>45460</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="3">
-        <v>45439</v>
+        <v>45467</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="3">
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="3">
-        <v>45453</v>
+        <v>45481</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>
@@ -994,87 +991,87 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1082,7 +1079,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4"/>
     </row>
